--- a/数值/Z_职业_doc.xlsx
+++ b/数值/Z_职业_doc.xlsx
@@ -56,15 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修炼仙术有成的大黄豆，以气劲强化自己进行战斗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>龙雀剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>背着家传宝剑四处流浪修行的剑客少年，在剑术上精益求精。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼仙术小有所成的大黄豆，以气劲强化自己进行战斗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -489,10 +489,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
